--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H2">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I2">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J2">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N2">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O2">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P2">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q2">
-        <v>5.986160320073999</v>
+        <v>3.008781243541</v>
       </c>
       <c r="R2">
-        <v>23.944641280296</v>
+        <v>12.035124974164</v>
       </c>
       <c r="S2">
-        <v>0.0008474868005360123</v>
+        <v>0.0001116090652722219</v>
       </c>
       <c r="T2">
-        <v>0.0004051279829687274</v>
+        <v>5.077172225029741E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H3">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I3">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J3">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P3">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q3">
-        <v>1.440392124881</v>
+        <v>1.009225054594</v>
       </c>
       <c r="R3">
-        <v>8.642352749285999</v>
+        <v>6.055350327564001</v>
       </c>
       <c r="S3">
-        <v>0.0002039225894667613</v>
+        <v>3.743664157517158E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001462230691383818</v>
+        <v>2.554527398920365E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H4">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I4">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J4">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N4">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O4">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P4">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q4">
-        <v>565.37406278512</v>
+        <v>579.490748522418</v>
       </c>
       <c r="R4">
-        <v>3392.24437671072</v>
+        <v>3476.944491134508</v>
       </c>
       <c r="S4">
-        <v>0.08004246962264533</v>
+        <v>0.021495886720023</v>
       </c>
       <c r="T4">
-        <v>0.05739460056997076</v>
+        <v>0.01466793742171716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H5">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I5">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J5">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N5">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O5">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P5">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q5">
-        <v>5.636853107781499</v>
+        <v>4.09517644672</v>
       </c>
       <c r="R5">
-        <v>22.54741243112599</v>
+        <v>16.38070578688</v>
       </c>
       <c r="S5">
-        <v>0.0007980338564247084</v>
+        <v>0.0001519082905493425</v>
       </c>
       <c r="T5">
-        <v>0.000381487766404875</v>
+        <v>6.910411368894671E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H6">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I6">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J6">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N6">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O6">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P6">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q6">
-        <v>4.804321472051333</v>
+        <v>1027.187625107481</v>
       </c>
       <c r="R6">
-        <v>28.825928832308</v>
+        <v>6163.125750644888</v>
       </c>
       <c r="S6">
-        <v>0.0006801687250910308</v>
+        <v>0.03810295312879474</v>
       </c>
       <c r="T6">
-        <v>0.0004877162396516245</v>
+        <v>0.02599993846986486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H7">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I7">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J7">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N7">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O7">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P7">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q7">
-        <v>756.8746732315878</v>
+        <v>50.21912986873333</v>
       </c>
       <c r="R7">
-        <v>4541.248039389528</v>
+        <v>301.3147792124</v>
       </c>
       <c r="S7">
-        <v>0.1071540454860135</v>
+        <v>0.001862850666018275</v>
       </c>
       <c r="T7">
-        <v>0.07683500608015056</v>
+        <v>0.00127113514092481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J8">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N8">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O8">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P8">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q8">
-        <v>4.376883301934</v>
+        <v>3.139785296598167</v>
       </c>
       <c r="R8">
-        <v>26.261299811604</v>
+        <v>18.838711779589</v>
       </c>
       <c r="S8">
-        <v>0.0006196544408335673</v>
+        <v>0.0001164685876917965</v>
       </c>
       <c r="T8">
-        <v>0.0004443243604391399</v>
+        <v>7.947352803398193E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J9">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P9">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q9">
         <v>1.053167289637667</v>
@@ -1013,10 +1013,10 @@
         <v>9.478505606739001</v>
       </c>
       <c r="S9">
-        <v>0.0001491014822525128</v>
+        <v>3.906665432193546E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001603702395481648</v>
+        <v>3.998629470373803E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>65.250653</v>
       </c>
       <c r="I10">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J10">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N10">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O10">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P10">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q10">
-        <v>413.3828969552534</v>
+        <v>604.722106544387</v>
       </c>
       <c r="R10">
-        <v>3720.446072597281</v>
+        <v>5442.498958899483</v>
       </c>
       <c r="S10">
-        <v>0.05852441799162923</v>
+        <v>0.02243182989981582</v>
       </c>
       <c r="T10">
-        <v>0.06294756290108128</v>
+        <v>0.02295988168647761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>65.250653</v>
       </c>
       <c r="I11">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J11">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N11">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O11">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P11">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q11">
-        <v>4.121481370983166</v>
+        <v>4.273482767146667</v>
       </c>
       <c r="R11">
-        <v>24.728888225899</v>
+        <v>25.64089660288</v>
       </c>
       <c r="S11">
-        <v>0.000583496076583549</v>
+        <v>0.000158522464244313</v>
       </c>
       <c r="T11">
-        <v>0.0004183969386194842</v>
+        <v>0.0001081694193757591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>65.250653</v>
       </c>
       <c r="I12">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J12">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N12">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O12">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P12">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q12">
-        <v>3.512761654182444</v>
+        <v>1071.911960726138</v>
       </c>
       <c r="R12">
-        <v>31.614854887642</v>
+        <v>9647.207646535238</v>
       </c>
       <c r="S12">
-        <v>0.0004973169738480824</v>
+        <v>0.03976197746100068</v>
       </c>
       <c r="T12">
-        <v>0.0005349030809252151</v>
+        <v>0.0406979859513138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>65.250653</v>
       </c>
       <c r="I13">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J13">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N13">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O13">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P13">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q13">
-        <v>553.4018372035747</v>
+        <v>52.40569945332223</v>
       </c>
       <c r="R13">
-        <v>4980.616534832172</v>
+        <v>471.6512950799</v>
       </c>
       <c r="S13">
-        <v>0.07834750947943388</v>
+        <v>0.001943960247518268</v>
       </c>
       <c r="T13">
-        <v>0.08426883940657251</v>
+        <v>0.001989721635977707</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H14">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I14">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J14">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N14">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O14">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P14">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q14">
-        <v>6.239054039306</v>
+        <v>5.507247872050834</v>
       </c>
       <c r="R14">
-        <v>37.434324235836</v>
+        <v>33.043487232305</v>
       </c>
       <c r="S14">
-        <v>0.0008832900663237436</v>
+        <v>0.0002042882939866515</v>
       </c>
       <c r="T14">
-        <v>0.0006333647722649913</v>
+        <v>0.0001393981998144041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H15">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I15">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J15">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P15">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q15">
-        <v>1.501243505755667</v>
+        <v>1.847277048228333</v>
       </c>
       <c r="R15">
-        <v>13.511191551801</v>
+        <v>16.625493434055</v>
       </c>
       <c r="S15">
-        <v>0.0002125375846102646</v>
+        <v>6.852371374429035E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002286007009589071</v>
+        <v>7.013678185478237E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H16">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I16">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J16">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N16">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O16">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P16">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q16">
-        <v>589.2590812026134</v>
+        <v>1060.694990213815</v>
       </c>
       <c r="R16">
-        <v>5303.331730823521</v>
+        <v>9546.254911924334</v>
       </c>
       <c r="S16">
-        <v>0.08342397575630246</v>
+        <v>0.0393458901842158</v>
       </c>
       <c r="T16">
-        <v>0.0897289736760685</v>
+        <v>0.04027210385926443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H17">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I17">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J17">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N17">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O17">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P17">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q17">
-        <v>5.874989855040166</v>
+        <v>7.495776510933333</v>
       </c>
       <c r="R17">
-        <v>35.249939130241</v>
+        <v>44.9746590656</v>
       </c>
       <c r="S17">
-        <v>0.0008317479133883223</v>
+        <v>0.0002780516568529805</v>
       </c>
       <c r="T17">
-        <v>0.000596406376376018</v>
+        <v>0.0001897313823730425</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H18">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I18">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J18">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N18">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O18">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P18">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q18">
-        <v>5.007286755386444</v>
+        <v>1880.155586157701</v>
       </c>
       <c r="R18">
-        <v>45.065580798478</v>
+        <v>16921.40027541931</v>
       </c>
       <c r="S18">
-        <v>0.0007089034046512722</v>
+        <v>0.06974332480564334</v>
       </c>
       <c r="T18">
-        <v>0.0007624807419948916</v>
+        <v>0.07138510291451071</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H19">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I19">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J19">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N19">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O19">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P19">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q19">
-        <v>788.8499029066386</v>
+        <v>91.92067276394445</v>
       </c>
       <c r="R19">
-        <v>7099.649126159748</v>
+        <v>827.2860548755</v>
       </c>
       <c r="S19">
-        <v>0.1116809180795924</v>
+        <v>0.003409746184904992</v>
       </c>
       <c r="T19">
-        <v>0.1201215126423155</v>
+        <v>0.003490012599773675</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H20">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I20">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J20">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N20">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O20">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P20">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q20">
-        <v>0.409798250301</v>
+        <v>0.14904916892375</v>
       </c>
       <c r="R20">
-        <v>1.639193001204</v>
+        <v>0.5961966756949999</v>
       </c>
       <c r="S20">
-        <v>5.801692394509026E-05</v>
+        <v>5.528895947118914E-06</v>
       </c>
       <c r="T20">
-        <v>2.773409492756544E-05</v>
+        <v>2.515132338876259E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H21">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I21">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J21">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.145263</v>
       </c>
       <c r="O21">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P21">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q21">
-        <v>0.0986058075565</v>
+        <v>0.04999504565749999</v>
       </c>
       <c r="R21">
-        <v>0.591634845339</v>
+        <v>0.299970273945</v>
       </c>
       <c r="S21">
-        <v>1.396005383953614E-05</v>
+        <v>1.854538386947903E-06</v>
       </c>
       <c r="T21">
-        <v>1.001008237043178E-05</v>
+        <v>1.265463172569929E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H22">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I22">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J22">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N22">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O22">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P22">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q22">
-        <v>38.70415914488001</v>
+        <v>28.7068442252775</v>
       </c>
       <c r="R22">
-        <v>232.2249548692801</v>
+        <v>172.241065351665</v>
       </c>
       <c r="S22">
-        <v>0.005479516459179215</v>
+        <v>0.001064864405737859</v>
       </c>
       <c r="T22">
-        <v>0.003929097390095967</v>
+        <v>0.0007266210819499623</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H23">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I23">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J23">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N23">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O23">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P23">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q23">
-        <v>0.38588551212475</v>
+        <v>0.2028670736</v>
       </c>
       <c r="R23">
-        <v>1.543542048499</v>
+        <v>0.8114682943999999</v>
       </c>
       <c r="S23">
-        <v>5.463149340440021E-05</v>
+        <v>7.525241161221865E-06</v>
       </c>
       <c r="T23">
-        <v>2.611574211597824E-05</v>
+        <v>3.423283343267586E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H24">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I24">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J24">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N24">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O24">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P24">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q24">
-        <v>0.3288923830736667</v>
+        <v>50.88487645278166</v>
       </c>
       <c r="R24">
-        <v>1.973354298442</v>
+        <v>305.30925871669</v>
       </c>
       <c r="S24">
-        <v>4.656272778346182E-05</v>
+        <v>0.001887546164939414</v>
       </c>
       <c r="T24">
-        <v>3.338788989369202E-05</v>
+        <v>0.001287986366347204</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H25">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I25">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J25">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N25">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O25">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P25">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q25">
-        <v>51.813833944162</v>
+        <v>2.487757987416666</v>
       </c>
       <c r="R25">
-        <v>310.883003664972</v>
+        <v>14.9265479245</v>
       </c>
       <c r="S25">
-        <v>0.007335510244453202</v>
+        <v>9.228199763446662E-05</v>
       </c>
       <c r="T25">
-        <v>0.005259941159264369</v>
+        <v>6.296956176237045E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H26">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I26">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J26">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N26">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O26">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P26">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q26">
-        <v>3.535940368158</v>
+        <v>34.59113115157633</v>
       </c>
       <c r="R26">
-        <v>21.215642208948</v>
+        <v>207.546786909458</v>
       </c>
       <c r="S26">
-        <v>0.0005005984853842519</v>
+        <v>0.001283138753548157</v>
       </c>
       <c r="T26">
-        <v>0.0003589550678535389</v>
+        <v>0.0008755628081577637</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H27">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I27">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J27">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.145263</v>
       </c>
       <c r="O27">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P27">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q27">
-        <v>0.850819287827</v>
+        <v>11.60278312019533</v>
       </c>
       <c r="R27">
-        <v>7.657373590443</v>
+        <v>104.425048081758</v>
       </c>
       <c r="S27">
-        <v>0.0001204541939274221</v>
+        <v>0.0004303987806960912</v>
       </c>
       <c r="T27">
-        <v>0.0001295578531003921</v>
+        <v>0.0004405304929165684</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H28">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I28">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J28">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N28">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O28">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P28">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q28">
-        <v>333.9584750190401</v>
+        <v>6662.245893182015</v>
       </c>
       <c r="R28">
-        <v>3005.626275171361</v>
+        <v>59960.21303863812</v>
       </c>
       <c r="S28">
-        <v>0.04727995649509657</v>
+        <v>0.2471323026052397</v>
       </c>
       <c r="T28">
-        <v>0.05085327009763957</v>
+        <v>0.252949868738514</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H29">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I29">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J29">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N29">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O29">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P29">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q29">
-        <v>3.3296095305605</v>
+        <v>47.08111826389334</v>
       </c>
       <c r="R29">
-        <v>19.977657183363</v>
+        <v>282.48670958336</v>
       </c>
       <c r="S29">
-        <v>0.0004713873296420584</v>
+        <v>0.001746447872434853</v>
       </c>
       <c r="T29">
-        <v>0.0003380091547162451</v>
+        <v>0.001191706508171349</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H30">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I30">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J30">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N30">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O30">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P30">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q30">
-        <v>2.837844849839334</v>
+        <v>11809.29385732025</v>
       </c>
       <c r="R30">
-        <v>25.540603648554</v>
+        <v>106283.6447158822</v>
       </c>
       <c r="S30">
-        <v>0.0004017660609828449</v>
+        <v>0.4380591815273805</v>
       </c>
       <c r="T30">
-        <v>0.0004321306432958386</v>
+        <v>0.4483712218068513</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H31">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I31">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J31">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N31">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O31">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P31">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q31">
-        <v>447.075181354796</v>
+        <v>577.3555360119778</v>
       </c>
       <c r="R31">
-        <v>4023.676632193164</v>
+        <v>5196.1998241078</v>
       </c>
       <c r="S31">
-        <v>0.06329438150442816</v>
+        <v>0.02141668220059861</v>
       </c>
       <c r="T31">
-        <v>0.06807802961158697</v>
+        <v>0.02192083711577505</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H32">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I32">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J32">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N32">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O32">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P32">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q32">
-        <v>11.003750273956</v>
+        <v>2.319232202663667</v>
       </c>
       <c r="R32">
-        <v>66.02250164373599</v>
+        <v>13.915393215982</v>
       </c>
       <c r="S32">
-        <v>0.001557848873893333</v>
+        <v>8.603062746558925E-05</v>
       </c>
       <c r="T32">
-        <v>0.001117058410204156</v>
+        <v>5.870387560429861E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H33">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I33">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J33">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.145263</v>
       </c>
       <c r="O33">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P33">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q33">
-        <v>2.647726487647333</v>
+        <v>0.7779320119646667</v>
       </c>
       <c r="R33">
-        <v>23.829538388826</v>
+        <v>7.001388107682001</v>
       </c>
       <c r="S33">
-        <v>0.0003748501760278537</v>
+        <v>2.885695491724513E-05</v>
       </c>
       <c r="T33">
-        <v>0.0004031805158210995</v>
+        <v>2.953625601170446E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H34">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I34">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J34">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N34">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O34">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P34">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q34">
-        <v>1039.269693027947</v>
+        <v>446.6837221895061</v>
       </c>
       <c r="R34">
-        <v>9353.427237251521</v>
+        <v>4020.153499705554</v>
       </c>
       <c r="S34">
-        <v>0.1471339389432541</v>
+        <v>0.01656948401048096</v>
       </c>
       <c r="T34">
-        <v>0.1582539937063372</v>
+        <v>0.01695953447336675</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H35">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I35">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J35">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N35">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O35">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P35">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q35">
-        <v>10.36165431804433</v>
+        <v>3.156648596906667</v>
       </c>
       <c r="R35">
-        <v>62.16992590826599</v>
+        <v>18.93989158144</v>
       </c>
       <c r="S35">
-        <v>0.001466944551553707</v>
+        <v>0.000117094122429118</v>
       </c>
       <c r="T35">
-        <v>0.001051875298096747</v>
+        <v>7.99003680383813E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H36">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I36">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J36">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N36">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O36">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P36">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q36">
-        <v>8.831296004047553</v>
+        <v>791.7779411318049</v>
       </c>
       <c r="R36">
-        <v>79.48166403642799</v>
+        <v>7126.001470186244</v>
       </c>
       <c r="S36">
-        <v>0.001250285056676232</v>
+        <v>0.02937056195181671</v>
       </c>
       <c r="T36">
-        <v>0.001344778811139411</v>
+        <v>0.03006195350494387</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H37">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I37">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J37">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N37">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O37">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P37">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q37">
-        <v>1391.285807196605</v>
+        <v>38.70996717735556</v>
       </c>
       <c r="R37">
-        <v>12521.57226476945</v>
+        <v>348.3897045962</v>
       </c>
       <c r="S37">
-        <v>0.1969703940969022</v>
+        <v>0.001435924683011661</v>
       </c>
       <c r="T37">
-        <v>0.2118569769260914</v>
+        <v>0.001469726766825711</v>
       </c>
     </row>
   </sheetData>
